--- a/20250321涨停排序.xlsx
+++ b/20250321涨停排序.xlsx
@@ -91,18 +91,18 @@
     <t>300084</t>
   </si>
   <si>
+    <t>000555</t>
+  </si>
+  <si>
+    <t>002427</t>
+  </si>
+  <si>
+    <t>603139</t>
+  </si>
+  <si>
     <t>002907</t>
   </si>
   <si>
-    <t>002427</t>
-  </si>
-  <si>
-    <t>603139</t>
-  </si>
-  <si>
-    <t>000555</t>
-  </si>
-  <si>
     <t>002554</t>
   </si>
   <si>
@@ -232,18 +232,18 @@
     <t>海默科技</t>
   </si>
   <si>
+    <t>神州信息</t>
+  </si>
+  <si>
+    <t>尤夫股份</t>
+  </si>
+  <si>
+    <t>康惠制药</t>
+  </si>
+  <si>
     <t>华森制药</t>
   </si>
   <si>
-    <t>尤夫股份</t>
-  </si>
-  <si>
-    <t>康惠制药</t>
-  </si>
-  <si>
-    <t>神州信息</t>
-  </si>
-  <si>
     <t>惠博普</t>
   </si>
   <si>
@@ -349,13 +349,13 @@
     <t>采掘行业</t>
   </si>
   <si>
+    <t>互联网服</t>
+  </si>
+  <si>
+    <t>化纤行业</t>
+  </si>
+  <si>
     <t>中药</t>
-  </si>
-  <si>
-    <t>化纤行业</t>
-  </si>
-  <si>
-    <t>互联网服</t>
   </si>
   <si>
     <t>风电设备</t>
@@ -809,7 +809,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1260,13 +1260,13 @@
         <v>72</v>
       </c>
       <c r="D20">
-        <v>14.39</v>
+        <v>15.96</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -1324,12 +1324,12 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1338,13 +1338,13 @@
         <v>75</v>
       </c>
       <c r="D23">
-        <v>15.96</v>
+        <v>14.39</v>
       </c>
       <c r="E23">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8">
